--- a/static/excel/检查对象模板.xlsx
+++ b/static/excel/检查对象模板.xlsx
@@ -140,32 +140,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -445,87 +433,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.75" style="1" customWidth="1"/>
-    <col min="10" max="10" width="24.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="25.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.25" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="18" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12" style="3" customWidth="1"/>
+    <col min="9" max="9" width="17.75" style="3" customWidth="1"/>
+    <col min="10" max="10" width="24.125" style="3" customWidth="1"/>
     <col min="11" max="11" width="23" customWidth="1"/>
-    <col min="12" max="12" width="24.875" customWidth="1"/>
+    <col min="12" max="12" width="24.875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="F20" s="5"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/static/excel/检查对象模板.xlsx
+++ b/static/excel/检查对象模板.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linh\Desktop\双随机模板\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dingdingDownload\双随机模板(2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>状态：启用/停用</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -66,13 +66,54 @@
   </si>
   <si>
     <t>监管单位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业</t>
+  </si>
+  <si>
+    <t>暗室逢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>范德萨发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公路养护</t>
+  </si>
+  <si>
+    <t>150000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>萨芬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>启用</t>
+  </si>
+  <si>
+    <t>阿斯顿发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿斯顿发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>111</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -433,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -493,6 +534,44 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="3">

--- a/static/excel/检查对象模板.xlsx
+++ b/static/excel/检查对象模板.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dingdingDownload\双随机模板(2)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\zhangminhui\行政检查\zhzf\static\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>状态：启用/停用</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -66,47 +66,6 @@
   </si>
   <si>
     <t>监管单位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>企业</t>
-  </si>
-  <si>
-    <t>暗室逢</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>范德萨发</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1111</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>公路养护</t>
-  </si>
-  <si>
-    <t>150000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>萨芬</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>启用</t>
-  </si>
-  <si>
-    <t>阿斯顿发</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿斯顿发</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>111</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -477,7 +436,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -535,42 +494,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="K2" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/static/excel/检查对象模板.xlsx
+++ b/static/excel/检查对象模板.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\zhangminhui\行政检查\zhzf\static\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EDZ\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -433,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -493,9 +493,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="K2" s="3"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="3">
